--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spp1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spp1-Itga4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H2">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I2">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J2">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N2">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q2">
-        <v>4787.60287876151</v>
+        <v>0.007915734172</v>
       </c>
       <c r="R2">
-        <v>43088.42590885358</v>
+        <v>0.071241607548</v>
       </c>
       <c r="S2">
-        <v>0.6377097420254252</v>
+        <v>0.00092455279831515</v>
       </c>
       <c r="T2">
-        <v>0.6377097420254252</v>
+        <v>0.0009245527983151502</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H3">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I3">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J3">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q3">
-        <v>27.78098209035311</v>
+        <v>0.0451839778831111</v>
       </c>
       <c r="R3">
-        <v>250.028838813178</v>
+        <v>0.406655800948</v>
       </c>
       <c r="S3">
-        <v>0.003700432840961736</v>
+        <v>0.005277460344564009</v>
       </c>
       <c r="T3">
-        <v>0.003700432840961736</v>
+        <v>0.00527746034456401</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H4">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I4">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J4">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N4">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q4">
-        <v>252.9871840814928</v>
+        <v>0.7970753838817779</v>
       </c>
       <c r="R4">
-        <v>2276.884656733435</v>
+        <v>7.173678454936001</v>
       </c>
       <c r="S4">
-        <v>0.03369794780014881</v>
+        <v>0.0930979060972969</v>
       </c>
       <c r="T4">
-        <v>0.03369794780014881</v>
+        <v>0.0930979060972969</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>4.205225</v>
       </c>
       <c r="I5">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J5">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N5">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q5">
-        <v>32.108991282275</v>
+        <v>0.03264095644999999</v>
       </c>
       <c r="R5">
-        <v>288.980921540475</v>
+        <v>0.29376860805</v>
       </c>
       <c r="S5">
-        <v>0.004276924604200494</v>
+        <v>0.003812443289502931</v>
       </c>
       <c r="T5">
-        <v>0.004276924604200494</v>
+        <v>0.003812443289502932</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.205225</v>
       </c>
       <c r="I6">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J6">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q6">
         <v>0.1863185678388888</v>
@@ -818,10 +818,10 @@
         <v>1.676867110549999</v>
       </c>
       <c r="S6">
-        <v>2.481767365421522E-05</v>
+        <v>0.02176189214171046</v>
       </c>
       <c r="T6">
-        <v>2.481767365421522E-05</v>
+        <v>0.02176189214171047</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.205225</v>
       </c>
       <c r="I7">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J7">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N7">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q7">
-        <v>1.696707829347222</v>
+        <v>3.286783301122222</v>
       </c>
       <c r="R7">
-        <v>15.270370464125</v>
+        <v>29.5810497101</v>
       </c>
       <c r="S7">
-        <v>0.0002260018509357729</v>
+        <v>0.3838942329894169</v>
       </c>
       <c r="T7">
-        <v>0.0002260018509357729</v>
+        <v>0.3838942329894169</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H8">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I8">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J8">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N8">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q8">
-        <v>2271.897189333964</v>
+        <v>0.039158723374</v>
       </c>
       <c r="R8">
-        <v>20447.07470400567</v>
+        <v>0.352428510366</v>
       </c>
       <c r="S8">
-        <v>0.3026171984617987</v>
+        <v>0.004573714387977375</v>
       </c>
       <c r="T8">
-        <v>0.3026171984617987</v>
+        <v>0.004573714387977376</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H9">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I9">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J9">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q9">
-        <v>13.18311830080977</v>
+        <v>0.2235227778517777</v>
       </c>
       <c r="R9">
-        <v>118.648064707288</v>
+        <v>2.011705000666</v>
       </c>
       <c r="S9">
-        <v>0.001755994217480888</v>
+        <v>0.02610732059207366</v>
       </c>
       <c r="T9">
-        <v>0.001755994217480888</v>
+        <v>0.02610732059207366</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H10">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I10">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J10">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N10">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q10">
-        <v>120.0519105295844</v>
+        <v>3.943090279112445</v>
       </c>
       <c r="R10">
-        <v>1080.46719476626</v>
+        <v>35.48781251201201</v>
       </c>
       <c r="S10">
-        <v>0.01599094052539406</v>
+        <v>0.4605504773591426</v>
       </c>
       <c r="T10">
-        <v>0.01599094052539406</v>
+        <v>0.4605504773591426</v>
       </c>
     </row>
   </sheetData>
